--- a/DataTest.xlsx
+++ b/DataTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syidi\Katalon Studio\PracticalExercise-Syidik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E63426B-5315-4636-8BB7-022E16A6C348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43032C8-CED2-4BFC-B47D-0CB74F148540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{0FDF8CE7-2916-4DD6-831F-F2D3B425B969}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>secret_sauce</t>
   </si>
   <si>
-    <t>Object Repository/Page_Swag Labs/div_Sauce Labs Backpack</t>
+    <t>Sauce Labs Backpack</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataTest.xlsx
+++ b/DataTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syidi\Katalon Studio\PracticalExercise-Syidik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43032C8-CED2-4BFC-B47D-0CB74F148540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B3870-F4E9-4D38-A154-F98B797EAE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{0FDF8CE7-2916-4DD6-831F-F2D3B425B969}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Syidik</t>
+  </si>
+  <si>
+    <t>Priam</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
   </si>
 </sst>
 </file>
@@ -403,19 +418,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24E995C-28E8-4BBF-8B9A-6C2A64E9C8C7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +443,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,6 +462,15 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>13530</v>
       </c>
     </row>
   </sheetData>
